--- a/Feldliste.xlsx
+++ b/Feldliste.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\eclipse-workspace\RST-Lvlup\RST-levelup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{11503CE3-17A2-4E8D-8FE6-1E38EBF7D0BA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6459305-948A-46E6-B602-B3E1D3F0AFBF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{900FD3F6-845D-4460-9303-54371D2A7DD4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{900FD3F6-845D-4460-9303-54371D2A7DD4}"/>
   </bookViews>
   <sheets>
     <sheet name="MM" sheetId="2" r:id="rId1"/>
     <sheet name="PK" sheetId="3" r:id="rId2"/>
     <sheet name="SO" sheetId="1" r:id="rId3"/>
+    <sheet name="SHF" sheetId="5" r:id="rId4"/>
+    <sheet name="META" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="91">
   <si>
     <t>bearbDatum</t>
   </si>
@@ -80,9 +82,6 @@
     <t>kein Feld in M+, wohl query. Ich behalte das Feld nur, wenn dieser Record auch wirklich das Standardbild beschreibt. Dann ist der Pfad im Prinzip bedeutungslos.</t>
   </si>
   <si>
-    <t xml:space="preserve">verknüpftesObjekt, jeder MM-DS kann nur an einem DS hängen, dieses Feld existiert nicht im MM, ich spiele es nur als solches aus. </t>
-  </si>
-  <si>
     <t>heißt dieses Feld wirklich so? Oder Urheber. Ist es wirklich nicht wiederholbar?</t>
   </si>
   <si>
@@ -92,84 +91,239 @@
     <t>anfertDat</t>
   </si>
   <si>
-    <t>&lt;abbildungen/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      &lt;aktuellerStandort/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      &lt;andereNr/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      &lt;anzahlTeile/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      &lt;bearbDatum/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      &lt;besitzart/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      &lt;erwerbDatum/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      &lt;erwerbNr/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      &lt;erwerbungVon/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      &lt;erwerbungsart/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      &lt;geogrBezug/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      &lt;handling/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      &lt;identNr/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      &lt;inventarNotiz/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      &lt;kurzeBeschreibung/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      &lt;materialTechnik/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      &lt;maßangabe/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      &lt;objStatus/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      &lt;objekttyp/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      &lt;personKörperschaft/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      &lt;sachbegriff/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      &lt;ständigerStandort/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      &lt;titel/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      &lt;verantwortlichkeit/&gt;</t>
+    <t>FELDNAME</t>
+  </si>
+  <si>
+    <t>FELDTYP</t>
+  </si>
+  <si>
+    <t>FELDNAME (MPX Notation)</t>
+  </si>
+  <si>
+    <t>kleines Camel ohne Leerzeichen, normalerweise geschrieben wie im GUI</t>
+  </si>
+  <si>
+    <t>einfaches atomares Feld</t>
+  </si>
+  <si>
+    <t>Wiederholfeld (WF)</t>
+  </si>
+  <si>
+    <t>Feld, das wiederholt werden kann</t>
+  </si>
+  <si>
+    <t>Qualifikator</t>
+  </si>
+  <si>
+    <t>Feld, das sich auf ein anderes bezieht</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alt.Name: verknüpftesObjekt, jeder MM-DS kann nur an einem DS hängen. Kein normales Feld im MM. </t>
+  </si>
+  <si>
+    <t>format</t>
+  </si>
+  <si>
+    <t>fotoNegNr</t>
+  </si>
+  <si>
+    <t>matTechn</t>
+  </si>
+  <si>
+    <t>VervielfVon</t>
+  </si>
+  <si>
+    <t>Datum dd.mm.jjjj ?</t>
+  </si>
+  <si>
+    <t>Freitext</t>
+  </si>
+  <si>
+    <t>Nummer</t>
+  </si>
+  <si>
+    <t>Referenz?</t>
+  </si>
+  <si>
+    <t>Pfad</t>
+  </si>
+  <si>
+    <t>Modul MULTIMEDIAOBJEKT</t>
+  </si>
+  <si>
+    <t>aktuellerStandort</t>
+  </si>
+  <si>
+    <t>andereNr</t>
+  </si>
+  <si>
+    <t>anzahlTeile</t>
+  </si>
+  <si>
+    <t>bemerkungSammlung</t>
+  </si>
+  <si>
+    <t>besitzart</t>
+  </si>
+  <si>
+    <t>credits</t>
+  </si>
+  <si>
+    <t>erwerbDatum</t>
+  </si>
+  <si>
+    <t>erwerbNotiz</t>
+  </si>
+  <si>
+    <t>erwerbNr</t>
+  </si>
+  <si>
+    <t>erwerbungVon</t>
+  </si>
+  <si>
+    <t>erwerbungsart</t>
+  </si>
+  <si>
+    <t>geogrBezug</t>
+  </si>
+  <si>
+    <t>handling</t>
+  </si>
+  <si>
+    <t>identNr</t>
+  </si>
+  <si>
+    <t>inventarNotiz</t>
+  </si>
+  <si>
+    <t>kurzeBeschreibung</t>
+  </si>
+  <si>
+    <t>langeBeschreibung</t>
+  </si>
+  <si>
+    <t>materialTechnik</t>
+  </si>
+  <si>
+    <t>maßangaben</t>
+  </si>
+  <si>
+    <t>objStatus</t>
+  </si>
+  <si>
+    <t>objekttyp</t>
+  </si>
+  <si>
+    <t>personenKörperschaften</t>
+  </si>
+  <si>
+    <t>sachbegriff</t>
+  </si>
+  <si>
+    <t>ständigerStandort</t>
+  </si>
+  <si>
+    <t>systematikArt</t>
+  </si>
+  <si>
+    <t>titel</t>
+  </si>
+  <si>
+    <t>verantwortlichkeit</t>
+  </si>
+  <si>
+    <t>abbildungen</t>
+  </si>
+  <si>
+    <t>Qualifikatoren begin w/ repeating aspect they refer to</t>
+  </si>
+  <si>
+    <t>Quali</t>
+  </si>
+  <si>
+    <t>WF</t>
+  </si>
+  <si>
+    <t>Thesaurus</t>
+  </si>
+  <si>
+    <t>Datum</t>
+  </si>
+  <si>
+    <t>WL</t>
+  </si>
+  <si>
+    <t>CONTRAINT TYP</t>
+  </si>
+  <si>
+    <t>andereNrArt</t>
+  </si>
+  <si>
+    <t>andereNrBemerkung</t>
+  </si>
+  <si>
+    <t>geogrBezugArt</t>
+  </si>
+  <si>
+    <t>geogrBezugBezeichnung</t>
+  </si>
+  <si>
+    <t>geogrBezugKommentar</t>
+  </si>
+  <si>
+    <t>identNrArt</t>
+  </si>
+  <si>
+    <t>materialTechnikArt</t>
+  </si>
+  <si>
+    <t>materialTechnikBesonderheit</t>
+  </si>
+  <si>
+    <t>maßangabenTyp</t>
+  </si>
+  <si>
+    <t>personenArtDesBezugs</t>
+  </si>
+  <si>
+    <t>personenKörperschaftenFunktion</t>
+  </si>
+  <si>
+    <t>sachbegriffArt</t>
+  </si>
+  <si>
+    <t>titelArt</t>
+  </si>
+  <si>
+    <t>Modul Sammlungsobjekt</t>
+  </si>
+  <si>
+    <t>Soll: personKörperschaft</t>
+  </si>
+  <si>
+    <t>Soll: personKörperschaftArtBezug</t>
+  </si>
+  <si>
+    <t>Soll: personKörperschaftFunktion</t>
+  </si>
+  <si>
+    <t>Felder, die für SHF Export ausgegeben wurden (EM-HUF WAF Gestalter XSL2, MUME Export)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -197,9 +351,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="15" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -514,129 +673,239 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF7DE832-1337-42C2-B4F2-7C29A525F15D}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="3" max="3" width="71.5703125" customWidth="1"/>
+    <col min="1" max="1" width="34" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" customWidth="1"/>
+    <col min="5" max="5" width="117" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C2" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>10</v>
       </c>
-      <c r="B7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>9</v>
       </c>
-      <c r="B8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="C13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>17</v>
+      <c r="C19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -659,132 +928,512 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8988E68D-2A36-4978-8213-4379D7812A2A}">
-  <dimension ref="A1:A24"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" t="s">
+        <v>68</v>
+      </c>
+      <c r="E35" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36" t="s">
+        <v>67</v>
+      </c>
+      <c r="E36" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" t="s">
+        <v>67</v>
+      </c>
+      <c r="E37" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>60</v>
+      </c>
+      <c r="C38" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>84</v>
+      </c>
+      <c r="C39" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>62</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>63</v>
+      </c>
+      <c r="C42" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D585D4C0-ECDE-4628-9F57-80EA7305C3B5}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="60.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE0A804E-94F5-4EDE-AC50-7D5F24D4A23B}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="54.28515625" customWidth="1"/>
+    <col min="2" max="2" width="50.140625" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="C9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="C10" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Feldliste.xlsx
+++ b/Feldliste.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\eclipse-workspace\RST-Lvlup\RST-levelup\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6459305-948A-46E6-B602-B3E1D3F0AFBF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{900FD3F6-845D-4460-9303-54371D2A7DD4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15600" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="MM" sheetId="2" r:id="rId1"/>
@@ -19,7 +13,7 @@
     <sheet name="SHF" sheetId="5" r:id="rId4"/>
     <sheet name="META" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="203">
   <si>
     <t>bearbDatum</t>
   </si>
@@ -187,9 +181,6 @@
     <t>geogrBezug</t>
   </si>
   <si>
-    <t>handling</t>
-  </si>
-  <si>
     <t>identNr</t>
   </si>
   <si>
@@ -229,9 +220,6 @@
     <t>titel</t>
   </si>
   <si>
-    <t>verantwortlichkeit</t>
-  </si>
-  <si>
     <t>abbildungen</t>
   </si>
   <si>
@@ -244,15 +232,6 @@
     <t>WF</t>
   </si>
   <si>
-    <t>Thesaurus</t>
-  </si>
-  <si>
-    <t>Datum</t>
-  </si>
-  <si>
-    <t>WL</t>
-  </si>
-  <si>
     <t>CONTRAINT TYP</t>
   </si>
   <si>
@@ -262,9 +241,6 @@
     <t>andereNrBemerkung</t>
   </si>
   <si>
-    <t>geogrBezugArt</t>
-  </si>
-  <si>
     <t>geogrBezugBezeichnung</t>
   </si>
   <si>
@@ -283,37 +259,391 @@
     <t>maßangabenTyp</t>
   </si>
   <si>
-    <t>personenArtDesBezugs</t>
-  </si>
-  <si>
     <t>personenKörperschaftenFunktion</t>
   </si>
   <si>
     <t>sachbegriffArt</t>
   </si>
   <si>
-    <t>titelArt</t>
-  </si>
-  <si>
     <t>Modul Sammlungsobjekt</t>
   </si>
   <si>
-    <t>Soll: personKörperschaft</t>
-  </si>
-  <si>
-    <t>Soll: personKörperschaftArtBezug</t>
-  </si>
-  <si>
-    <t>Soll: personKörperschaftFunktion</t>
-  </si>
-  <si>
     <t>Felder, die für SHF Export ausgegeben wurden (EM-HUF WAF Gestalter XSL2, MUME Export)</t>
+  </si>
+  <si>
+    <t>RST SO1</t>
+  </si>
+  <si>
+    <t>SIC</t>
+  </si>
+  <si>
+    <t>personenKörperschaftenArtDesBezuges</t>
+  </si>
+  <si>
+    <t>sic</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>titelArt (Qualifikator)</t>
+  </si>
+  <si>
+    <t>swdArt</t>
+  </si>
+  <si>
+    <t>swd</t>
+  </si>
+  <si>
+    <t>geogrBezugArt (Qualifikator)</t>
+  </si>
+  <si>
+    <t>Ortstyp?</t>
+  </si>
+  <si>
+    <t>allgAngabeBeschriftung</t>
+  </si>
+  <si>
+    <t>=&lt;&lt;ObjMultiple(ObjFeld04M)&gt;&gt;</t>
+  </si>
+  <si>
+    <t>konvolut</t>
+  </si>
+  <si>
+    <t>ikonographischeBeschreibung</t>
+  </si>
+  <si>
+    <t>ikonographischeKurzbeschreibung</t>
+  </si>
+  <si>
+    <t>handlingVerpackungTransport</t>
+  </si>
+  <si>
+    <t>RST SO1Ende</t>
+  </si>
+  <si>
+    <t>verantwortlich</t>
+  </si>
+  <si>
+    <t>EM-Export-RST-SO2</t>
+  </si>
+  <si>
+    <t>Leihgeber</t>
+  </si>
+  <si>
+    <t>Verwaltende Institution</t>
+  </si>
+  <si>
+    <t>NEU</t>
+  </si>
+  <si>
+    <t>Inhalt</t>
+  </si>
+  <si>
+    <t>Kategorie/ Genre</t>
+  </si>
+  <si>
+    <t>Musikgattung</t>
+  </si>
+  <si>
+    <t>Text Original</t>
+  </si>
+  <si>
+    <t>Besetzung</t>
+  </si>
+  <si>
+    <t>Dokumentation</t>
+  </si>
+  <si>
+    <t>Technische Bemerkung</t>
+  </si>
+  <si>
+    <t>Vorlage</t>
+  </si>
+  <si>
+    <t>Digitalisiert</t>
+  </si>
+  <si>
+    <t>Format</t>
+  </si>
+  <si>
+    <t>Nadelschliff</t>
+  </si>
+  <si>
+    <t>Instrumente</t>
+  </si>
+  <si>
+    <t>Zielgruppe</t>
+  </si>
+  <si>
+    <t>Veranstaltung</t>
+  </si>
+  <si>
+    <t>Stelle Film</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Verfügbare Formate</t>
+  </si>
+  <si>
+    <t>Ton</t>
+  </si>
+  <si>
+    <t>Farbe</t>
+  </si>
+  <si>
+    <t>TV-Norm</t>
+  </si>
+  <si>
+    <t>Zusatzgeräte</t>
+  </si>
+  <si>
+    <t>Kamera</t>
+  </si>
+  <si>
+    <t>Schnitt</t>
+  </si>
+  <si>
+    <t>Verwendetes Licht</t>
+  </si>
+  <si>
+    <t>Bemerkung</t>
+  </si>
+  <si>
+    <t>Kameratyp</t>
+  </si>
+  <si>
+    <t>Stativ</t>
+  </si>
+  <si>
+    <t>Objektiv</t>
+  </si>
+  <si>
+    <t>Filter</t>
+  </si>
+  <si>
+    <t>Belichtungs zeit</t>
+  </si>
+  <si>
+    <t>Blende</t>
+  </si>
+  <si>
+    <t>Filmtyp</t>
+  </si>
+  <si>
+    <t>Zusatz1: Audio</t>
+  </si>
+  <si>
+    <t>Zusatz2: Audio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zusatz1: Audio, Zusatz1: Film/Video </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zusatz1: Film/Video </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zusatz2: Film/Video </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zusatz1: Fotografie </t>
+  </si>
+  <si>
+    <t>EM-Export-RST-SO3-Datierung</t>
+  </si>
+  <si>
+    <t>datierung</t>
+  </si>
+  <si>
+    <t>datierungArt</t>
+  </si>
+  <si>
+    <t>datierungBemerkung</t>
+  </si>
+  <si>
+    <t>datierungJahrBis</t>
+  </si>
+  <si>
+    <t>datierungMonatBis</t>
+  </si>
+  <si>
+    <t>datierungTagBis</t>
+  </si>
+  <si>
+    <t>datierungJahrVon</t>
+  </si>
+  <si>
+    <t>datierungMonatVon</t>
+  </si>
+  <si>
+    <t>datierungTagVon</t>
+  </si>
+  <si>
+    <t>EM-Export-RST-SO4-ObjBez</t>
+  </si>
+  <si>
+    <t>objBezArt</t>
+  </si>
+  <si>
+    <t>objBezBemerkung</t>
+  </si>
+  <si>
+    <t>objBezIdentNr</t>
+  </si>
+  <si>
+    <t>objBezSachbegriff</t>
+  </si>
+  <si>
+    <t>EM-Export-RST-SO5-Standorte</t>
+  </si>
+  <si>
+    <t>standortStatus</t>
+  </si>
+  <si>
+    <t>standortArt</t>
+  </si>
+  <si>
+    <t>standort</t>
+  </si>
+  <si>
+    <t>standortDetail</t>
+  </si>
+  <si>
+    <t>standortDatumVon</t>
+  </si>
+  <si>
+    <t>standortDatumBis</t>
+  </si>
+  <si>
+    <t>standortKommentar</t>
+  </si>
+  <si>
+    <t>standortBearbMit</t>
+  </si>
+  <si>
+    <t>standortBearbDat</t>
+  </si>
+  <si>
+    <t>Modul PK</t>
+  </si>
+  <si>
+    <t>EM-Export-RST-PK1</t>
+  </si>
+  <si>
+    <t>kueId</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>nameArt</t>
+  </si>
+  <si>
+    <t>nennform</t>
+  </si>
+  <si>
+    <t>nennformArt</t>
+  </si>
+  <si>
+    <t>titelStand</t>
+  </si>
+  <si>
+    <t>geoBezug</t>
+  </si>
+  <si>
+    <t>geoBezugOrtstyp</t>
+  </si>
+  <si>
+    <t>geoBezugArt</t>
+  </si>
+  <si>
+    <t>nationalität</t>
+  </si>
+  <si>
+    <t>berufTätigkeit</t>
+  </si>
+  <si>
+    <t>artKörpersch</t>
+  </si>
+  <si>
+    <t>biographie</t>
+  </si>
+  <si>
+    <t>kurzbiographie</t>
+  </si>
+  <si>
+    <t>quelle</t>
+  </si>
+  <si>
+    <t>bemerkungen</t>
+  </si>
+  <si>
+    <t>EM-Export-RST-MM</t>
+  </si>
+  <si>
+    <t>urhebFotograf</t>
+  </si>
+  <si>
+    <t>bemerkFoto</t>
+  </si>
+  <si>
+    <t>vervielfVon</t>
+  </si>
+  <si>
+    <t>=dlookup("MulPfadS &amp; '\' &amp; MulDateiS &amp; '.' &amp;MulExtentS","Multimedia","MulId=" &amp; Nz(dlookup("ObjMulId","ObjDaten","ObjId=" &amp; &lt;Obj. Id&gt;),0))</t>
+  </si>
+  <si>
+    <t>EM-Export-RST-SO6-Gestalter</t>
+  </si>
+  <si>
+    <t>OnlineBeschreibung</t>
+  </si>
+  <si>
+    <t>KA_Luftfeuchtigkeit</t>
+  </si>
+  <si>
+    <t>KA_Temperatur</t>
+  </si>
+  <si>
+    <t>KA_Beleuchtung</t>
+  </si>
+  <si>
+    <t>KA_BemLeihfähigkt</t>
+  </si>
+  <si>
+    <t>WG_Zustand</t>
+  </si>
+  <si>
+    <t>WG_Ständerung</t>
+  </si>
+  <si>
+    <t>WG_AusVorgaben</t>
+  </si>
+  <si>
+    <t>WG_Restzeit_gh</t>
+  </si>
+  <si>
+    <t>SektionHF</t>
+  </si>
+  <si>
+    <t>UrhbrFotograf_Stdbild</t>
+  </si>
+  <si>
+    <t>nennformBemerkung</t>
+  </si>
+  <si>
+    <t>namenBemerkung</t>
+  </si>
+  <si>
+    <t>geschlecht</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -351,7 +681,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -359,9 +689,13 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="15" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -665,21 +999,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF7DE832-1337-42C2-B4F2-7C29A525F15D}">
-  <dimension ref="A1:E20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E2"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34" customWidth="1"/>
     <col min="2" max="2" width="18.140625" customWidth="1"/>
@@ -861,7 +1195,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>13</v>
       </c>
@@ -875,7 +1209,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>7</v>
       </c>
@@ -886,7 +1220,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>16</v>
       </c>
@@ -897,7 +1231,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>31</v>
       </c>
@@ -906,6 +1240,112 @@
       </c>
       <c r="D20" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>183</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>187</v>
+      </c>
+      <c r="B43" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -915,35 +1355,185 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70E8A21A-399B-4B17-954B-44702B7C076A}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8988E68D-2A36-4978-8213-4379D7812A2A}">
-  <dimension ref="A1:E44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E129"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A55" sqref="A55:XFD55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.140625" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+    <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="2" max="2" width="36.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="E1" s="2"/>
     </row>
@@ -955,425 +1545,1035 @@
         <v>19</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="5"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="5"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="5"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="5"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" s="6"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="5"/>
+      <c r="E25" s="6"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" s="5"/>
+      <c r="E26" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="C27" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="D27" s="5"/>
+      <c r="E27" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="5"/>
+      <c r="E28" s="6"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" s="5"/>
+      <c r="E29" s="6"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="5"/>
+      <c r="E30" s="6"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" s="5"/>
+      <c r="E31" s="6"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" s="5"/>
+      <c r="E32" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" s="5"/>
+      <c r="E33" s="6"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E34" s="6"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D35" s="5"/>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D36" s="5"/>
+      <c r="E36" s="6"/>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="C37" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D37" s="5"/>
+      <c r="E37" s="6"/>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" t="s">
-        <v>68</v>
-      </c>
-      <c r="D18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>75</v>
-      </c>
-      <c r="C19" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+      <c r="C38" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D38" s="5"/>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B39" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E39" s="6"/>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B40" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D40" s="5"/>
+      <c r="E40" s="6"/>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B41" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D41" s="5"/>
+      <c r="E41" s="6"/>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B42" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E42" s="6"/>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B43" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C20" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+      <c r="C43" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D43" s="5"/>
+      <c r="E43" s="6"/>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B44" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B45" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C21" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" t="s">
-        <v>1</v>
-      </c>
-      <c r="D22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>51</v>
-      </c>
-      <c r="C23" t="s">
-        <v>1</v>
-      </c>
-      <c r="D23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>78</v>
-      </c>
-      <c r="C24" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>54</v>
-      </c>
-      <c r="C27" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>55</v>
-      </c>
-      <c r="C28" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>79</v>
-      </c>
-      <c r="C29" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>80</v>
-      </c>
-      <c r="C30" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>56</v>
-      </c>
-      <c r="C31" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>81</v>
-      </c>
-      <c r="C32" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>57</v>
-      </c>
-      <c r="C33" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>58</v>
-      </c>
-      <c r="C34" t="s">
-        <v>1</v>
-      </c>
-      <c r="D34" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>59</v>
-      </c>
-      <c r="C35" t="s">
-        <v>68</v>
-      </c>
-      <c r="E35" t="s">
+      <c r="C45" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B46" s="5" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>82</v>
-      </c>
-      <c r="C36" t="s">
-        <v>67</v>
-      </c>
-      <c r="E36" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>83</v>
-      </c>
-      <c r="C37" t="s">
-        <v>67</v>
-      </c>
-      <c r="E37" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
+      <c r="C46" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B47" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B48" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C38" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>84</v>
-      </c>
-      <c r="C39" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
+      <c r="C48" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B49" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C40" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
+      <c r="C49" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D49" s="5"/>
+      <c r="E49" s="6"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B50" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C41" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>63</v>
-      </c>
-      <c r="C42" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
+      <c r="C50" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D50" s="5"/>
+      <c r="E50" s="6"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B51" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C43" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>64</v>
-      </c>
-      <c r="C44" t="s">
-        <v>1</v>
-      </c>
+      <c r="C51" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D51" s="5"/>
+      <c r="E51" s="6"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>96</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D52" s="5"/>
+      <c r="E52" s="6"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B53" s="5"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="6"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>98</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" s="5"/>
+      <c r="E54" s="6"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>136</v>
+      </c>
+      <c r="B55" t="s">
+        <v>102</v>
+      </c>
+      <c r="D55" s="5"/>
+      <c r="E55" s="6"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>136</v>
+      </c>
+      <c r="B56" t="s">
+        <v>103</v>
+      </c>
+      <c r="D56" s="5"/>
+      <c r="E56" s="6"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>134</v>
+      </c>
+      <c r="B57" t="s">
+        <v>104</v>
+      </c>
+      <c r="D57" s="5"/>
+      <c r="E57" s="6"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>134</v>
+      </c>
+      <c r="B58" t="s">
+        <v>105</v>
+      </c>
+      <c r="D58" s="5"/>
+      <c r="E58" s="6"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>134</v>
+      </c>
+      <c r="B59" t="s">
+        <v>106</v>
+      </c>
+      <c r="D59" s="5"/>
+      <c r="E59" s="6"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>134</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C60" s="1"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="6"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>135</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C61" s="1"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="6"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>135</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C62" s="1"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="6"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>135</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C63" s="1"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="6"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>135</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C64" s="1"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="6"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>135</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C65" s="1"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="6"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>137</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C66" s="1"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="6"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>137</v>
+      </c>
+      <c r="B67" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>137</v>
+      </c>
+      <c r="B68" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>137</v>
+      </c>
+      <c r="B69" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>137</v>
+      </c>
+      <c r="B70" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>138</v>
+      </c>
+      <c r="B71" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>138</v>
+      </c>
+      <c r="B72" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>138</v>
+      </c>
+      <c r="B73" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>138</v>
+      </c>
+      <c r="B74" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>138</v>
+      </c>
+      <c r="B75" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>138</v>
+      </c>
+      <c r="B76" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>138</v>
+      </c>
+      <c r="B77" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>139</v>
+      </c>
+      <c r="B78" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>139</v>
+      </c>
+      <c r="B79" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>139</v>
+      </c>
+      <c r="B80" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>139</v>
+      </c>
+      <c r="B81" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>139</v>
+      </c>
+      <c r="B82" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>139</v>
+      </c>
+      <c r="B83" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>139</v>
+      </c>
+      <c r="B84" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>139</v>
+      </c>
+      <c r="B85" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>139</v>
+      </c>
+      <c r="B86" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>140</v>
+      </c>
+      <c r="B88" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>150</v>
+      </c>
+      <c r="B99" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>155</v>
+      </c>
+      <c r="B105" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B106" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B107" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B110" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B111" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B112" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B113" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B114" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>188</v>
+      </c>
+      <c r="B116" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B117" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B118" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B119" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B120" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B121" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B122" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B123" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B124" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B125" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B126" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B127" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B128" t="s">
+        <v>99</v>
+      </c>
+      <c r="C128" s="1"/>
+    </row>
+    <row r="129" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B129" t="s">
+        <v>100</v>
+      </c>
+      <c r="C129" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D585D4C0-ECDE-4628-9F57-80EA7305C3B5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="60.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1382,14 +2582,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE0A804E-94F5-4EDE-AC50-7D5F24D4A23B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="54.28515625" customWidth="1"/>
     <col min="2" max="2" width="50.140625" customWidth="1"/>
@@ -1406,7 +2606,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">

--- a/Feldliste.xlsx
+++ b/Feldliste.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\eclipse-workspace\RST-Lvlup\RST-levelup\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DC9D11C-A007-4E21-85B9-3CE62DB6109A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15600" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MM" sheetId="2" r:id="rId1"/>
@@ -18,18 +24,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="206">
   <si>
     <t>bearbDatum</t>
   </si>
@@ -638,12 +638,21 @@
   </si>
   <si>
     <t>geschlecht</t>
+  </si>
+  <si>
+    <t>TODO NEU</t>
+  </si>
+  <si>
+    <t>Ausstellungstitel</t>
+  </si>
+  <si>
+    <t>nicht notwendig</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -695,7 +704,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -999,21 +1008,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34" customWidth="1"/>
     <col min="2" max="2" width="18.140625" customWidth="1"/>
@@ -1355,14 +1364,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.42578125" customWidth="1"/>
   </cols>
@@ -1516,19 +1525,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E129"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:E132"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A55" sqref="A55:XFD55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
     <col min="2" max="2" width="36.28515625" customWidth="1"/>
     <col min="3" max="3" width="10.28515625" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="7" max="7" width="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -2541,6 +2551,9 @@
       <c r="B127" t="s">
         <v>199</v>
       </c>
+      <c r="C127" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
@@ -2548,11 +2561,21 @@
       </c>
       <c r="C128" s="1"/>
     </row>
-    <row r="129" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
         <v>100</v>
       </c>
       <c r="C129" s="1"/>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B132" t="s">
+        <v>204</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2561,12 +2584,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="60.85546875" customWidth="1"/>
   </cols>
@@ -2582,14 +2605,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="54.28515625" customWidth="1"/>
     <col min="2" max="2" width="50.140625" customWidth="1"/>
